--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.198033784976</v>
+        <v>15.89290866666667</v>
       </c>
       <c r="H2">
-        <v>11.198033784976</v>
+        <v>47.678726</v>
       </c>
       <c r="I2">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586633</v>
       </c>
       <c r="J2">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586632</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>990.4050709497109</v>
+        <v>1572.551247397874</v>
       </c>
       <c r="R2">
-        <v>990.4050709497109</v>
+        <v>14152.96122658087</v>
       </c>
       <c r="S2">
-        <v>0.00580511557424469</v>
+        <v>0.008686596342324718</v>
       </c>
       <c r="T2">
-        <v>0.00580511557424469</v>
+        <v>0.008686596342324718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.198033784976</v>
+        <v>15.89290866666667</v>
       </c>
       <c r="H3">
-        <v>11.198033784976</v>
+        <v>47.678726</v>
       </c>
       <c r="I3">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586633</v>
       </c>
       <c r="J3">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586632</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>1823.459420759524</v>
+        <v>2590.643215547475</v>
       </c>
       <c r="R3">
-        <v>1823.459420759524</v>
+        <v>23315.78893992728</v>
       </c>
       <c r="S3">
-        <v>0.01068794273468719</v>
+        <v>0.01431042194502759</v>
       </c>
       <c r="T3">
-        <v>0.01068794273468719</v>
+        <v>0.01431042194502759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.198033784976</v>
+        <v>15.89290866666667</v>
       </c>
       <c r="H4">
-        <v>11.198033784976</v>
+        <v>47.678726</v>
       </c>
       <c r="I4">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586633</v>
       </c>
       <c r="J4">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586632</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>692.2684566164618</v>
+        <v>1039.334350408925</v>
       </c>
       <c r="R4">
-        <v>692.2684566164618</v>
+        <v>9354.009153680321</v>
       </c>
       <c r="S4">
-        <v>0.004057631081400846</v>
+        <v>0.005741166134746855</v>
       </c>
       <c r="T4">
-        <v>0.004057631081400846</v>
+        <v>0.005741166134746856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.198033784976</v>
+        <v>15.89290866666667</v>
       </c>
       <c r="H5">
-        <v>11.198033784976</v>
+        <v>47.678726</v>
       </c>
       <c r="I5">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586633</v>
       </c>
       <c r="J5">
-        <v>0.02975999531159001</v>
+        <v>0.04140398574586632</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>1571.190645162504</v>
+        <v>2292.914380507904</v>
       </c>
       <c r="R5">
-        <v>1571.190645162504</v>
+        <v>20636.22942457114</v>
       </c>
       <c r="S5">
-        <v>0.009209305921257287</v>
+        <v>0.01266580132376717</v>
       </c>
       <c r="T5">
-        <v>0.009209305921257287</v>
+        <v>0.01266580132376717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>268.09239559564</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H6">
-        <v>268.09239559564</v>
+        <v>806.401001</v>
       </c>
       <c r="I6">
-        <v>0.7124847619859438</v>
+        <v>0.700274909838328</v>
       </c>
       <c r="J6">
-        <v>0.7124847619859438</v>
+        <v>0.7002749098383279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>23711.31157303853</v>
+        <v>26596.91242642357</v>
       </c>
       <c r="R6">
-        <v>23711.31157303853</v>
+        <v>239372.2118378122</v>
       </c>
       <c r="S6">
-        <v>0.1389804112840649</v>
+        <v>0.1469183548598507</v>
       </c>
       <c r="T6">
-        <v>0.1389804112840649</v>
+        <v>0.1469183548598507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>268.09239559564</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H7">
-        <v>268.09239559564</v>
+        <v>806.401001</v>
       </c>
       <c r="I7">
-        <v>0.7124847619859438</v>
+        <v>0.700274909838328</v>
       </c>
       <c r="J7">
-        <v>0.7124847619859438</v>
+        <v>0.7002749098383279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>43655.48575489556</v>
+        <v>43816.1305369473</v>
       </c>
       <c r="R7">
-        <v>43655.48575489556</v>
+        <v>394345.1748325257</v>
       </c>
       <c r="S7">
-        <v>0.2558802935186399</v>
+        <v>0.2420353803329941</v>
       </c>
       <c r="T7">
-        <v>0.2558802935186399</v>
+        <v>0.2420353803329941</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>268.09239559564</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H8">
-        <v>268.09239559564</v>
+        <v>806.401001</v>
       </c>
       <c r="I8">
-        <v>0.7124847619859438</v>
+        <v>0.700274909838328</v>
       </c>
       <c r="J8">
-        <v>0.7124847619859438</v>
+        <v>0.7002749098383279</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>16573.61573409482</v>
+        <v>17578.49529250093</v>
       </c>
       <c r="R8">
-        <v>16573.61573409482</v>
+        <v>158206.4576325083</v>
       </c>
       <c r="S8">
-        <v>0.09714384310177465</v>
+        <v>0.09710163224510582</v>
       </c>
       <c r="T8">
-        <v>0.09714384310177465</v>
+        <v>0.09710163224510583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>268.09239559564</v>
+        <v>268.8003336666666</v>
       </c>
       <c r="H9">
-        <v>268.09239559564</v>
+        <v>806.401001</v>
       </c>
       <c r="I9">
-        <v>0.7124847619859438</v>
+        <v>0.700274909838328</v>
       </c>
       <c r="J9">
-        <v>0.7124847619859438</v>
+        <v>0.7002749098383279</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>37615.91294395061</v>
+        <v>38780.57588302315</v>
       </c>
       <c r="R9">
-        <v>37615.91294395061</v>
+        <v>349025.1829472084</v>
       </c>
       <c r="S9">
-        <v>0.2204802140814643</v>
+        <v>0.2142195424003772</v>
       </c>
       <c r="T9">
-        <v>0.2204802140814643</v>
+        <v>0.2142195424003772</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.6832608048027</v>
+        <v>41.83092566666667</v>
       </c>
       <c r="H10">
-        <v>39.6832608048027</v>
+        <v>125.492777</v>
       </c>
       <c r="I10">
-        <v>0.1054625908598349</v>
+        <v>0.1089773487260793</v>
       </c>
       <c r="J10">
-        <v>0.1054625908598349</v>
+        <v>0.1089773487260792</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>3509.768186771079</v>
+        <v>4139.033056604183</v>
       </c>
       <c r="R10">
-        <v>3509.768186771079</v>
+        <v>37251.29750943764</v>
       </c>
       <c r="S10">
-        <v>0.02057199681285546</v>
+        <v>0.02286355339436653</v>
       </c>
       <c r="T10">
-        <v>0.02057199681285546</v>
+        <v>0.02286355339436652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.6832608048027</v>
+        <v>41.83092566666667</v>
       </c>
       <c r="H11">
-        <v>39.6832608048027</v>
+        <v>125.492777</v>
       </c>
       <c r="I11">
-        <v>0.1054625908598349</v>
+        <v>0.1089773487260793</v>
       </c>
       <c r="J11">
-        <v>0.1054625908598349</v>
+        <v>0.1089773487260792</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>6461.921543589069</v>
+        <v>6818.701727375482</v>
       </c>
       <c r="R11">
-        <v>6461.921543589069</v>
+        <v>61368.31554637934</v>
       </c>
       <c r="S11">
-        <v>0.03787561523313417</v>
+        <v>0.03766574194795501</v>
       </c>
       <c r="T11">
-        <v>0.03787561523313417</v>
+        <v>0.03766574194795501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.6832608048027</v>
+        <v>41.83092566666667</v>
       </c>
       <c r="H12">
-        <v>39.6832608048027</v>
+        <v>125.492777</v>
       </c>
       <c r="I12">
-        <v>0.1054625908598349</v>
+        <v>0.1089773487260793</v>
       </c>
       <c r="J12">
-        <v>0.1054625908598349</v>
+        <v>0.1089773487260792</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>2453.24047402918</v>
+        <v>2735.579676862738</v>
       </c>
       <c r="R12">
-        <v>2453.24047402918</v>
+        <v>24620.21709176464</v>
       </c>
       <c r="S12">
-        <v>0.01437931297090193</v>
+        <v>0.01511103466707015</v>
       </c>
       <c r="T12">
-        <v>0.01437931297090193</v>
+        <v>0.01511103466707015</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.6832608048027</v>
+        <v>41.83092566666667</v>
       </c>
       <c r="H13">
-        <v>39.6832608048027</v>
+        <v>125.492777</v>
       </c>
       <c r="I13">
-        <v>0.1054625908598349</v>
+        <v>0.1089773487260793</v>
       </c>
       <c r="J13">
-        <v>0.1054625908598349</v>
+        <v>0.1089773487260792</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>5567.938920643604</v>
+        <v>6035.064633085448</v>
       </c>
       <c r="R13">
-        <v>5567.938920643604</v>
+        <v>54315.58169776903</v>
       </c>
       <c r="S13">
-        <v>0.03263566584294333</v>
+        <v>0.03333701871668756</v>
       </c>
       <c r="T13">
-        <v>0.03263566584294333</v>
+        <v>0.03333701871668756</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>57.3043860619566</v>
+        <v>57.32556</v>
       </c>
       <c r="H14">
-        <v>57.3043860619566</v>
+        <v>171.97668</v>
       </c>
       <c r="I14">
-        <v>0.1522926518426313</v>
+        <v>0.1493437556897266</v>
       </c>
       <c r="J14">
-        <v>0.1522926518426313</v>
+        <v>0.1493437556897266</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>5068.26069944237</v>
+        <v>5672.17636346544</v>
       </c>
       <c r="R14">
-        <v>5068.26069944237</v>
+        <v>51049.58727118895</v>
       </c>
       <c r="S14">
-        <v>0.02970687447354469</v>
+        <v>0.03133246470245762</v>
       </c>
       <c r="T14">
-        <v>0.02970687447354469</v>
+        <v>0.03133246470245762</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>57.3043860619566</v>
+        <v>57.32556</v>
       </c>
       <c r="H15">
-        <v>57.3043860619566</v>
+        <v>171.97668</v>
       </c>
       <c r="I15">
-        <v>0.1522926518426313</v>
+        <v>0.1493437556897266</v>
       </c>
       <c r="J15">
-        <v>0.1522926518426313</v>
+        <v>0.1493437556897266</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>9331.300889242626</v>
+        <v>9344.42374308364</v>
       </c>
       <c r="R15">
-        <v>9331.300889242626</v>
+        <v>84099.81368775276</v>
       </c>
       <c r="S15">
-        <v>0.05469406580093754</v>
+        <v>0.05161754648194641</v>
       </c>
       <c r="T15">
-        <v>0.05469406580093754</v>
+        <v>0.05161754648194641</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>57.3043860619566</v>
+        <v>57.32556</v>
       </c>
       <c r="H16">
-        <v>57.3043860619566</v>
+        <v>171.97668</v>
       </c>
       <c r="I16">
-        <v>0.1522926518426313</v>
+        <v>0.1493437556897266</v>
       </c>
       <c r="J16">
-        <v>0.1522926518426313</v>
+        <v>0.1493437556897266</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>3542.587891607223</v>
+        <v>3748.868436486401</v>
       </c>
       <c r="R16">
-        <v>3542.587891607223</v>
+        <v>33739.8159283776</v>
       </c>
       <c r="S16">
-        <v>0.02076436474924306</v>
+        <v>0.02070832788573665</v>
       </c>
       <c r="T16">
-        <v>0.02076436474924306</v>
+        <v>0.02070832788573665</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>57.3043860619566</v>
+        <v>57.32556</v>
       </c>
       <c r="H17">
-        <v>57.3043860619566</v>
+        <v>171.97668</v>
       </c>
       <c r="I17">
-        <v>0.1522926518426313</v>
+        <v>0.1493437556897266</v>
       </c>
       <c r="J17">
-        <v>0.1522926518426313</v>
+        <v>0.1493437556897266</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>8040.350389737619</v>
+        <v>8270.5188616828</v>
       </c>
       <c r="R17">
-        <v>8040.350389737619</v>
+        <v>74434.66975514519</v>
       </c>
       <c r="S17">
-        <v>0.04712734681890599</v>
+        <v>0.0456854166195859</v>
       </c>
       <c r="T17">
-        <v>0.04712734681890599</v>
+        <v>0.0456854166195859</v>
       </c>
     </row>
   </sheetData>
